--- a/dev-examples/matrix_derivatives_frd.xlsx
+++ b/dev-examples/matrix_derivatives_frd.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au277187_uni_au_dk/Documents/Documents/GitHub/ABM/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au277187_uni_au_dk/Documents/Documents/GitHub/ABM/dev-examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{EA70C47F-F11B-4DF8-9431-2305A661FD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA504E52-B6D1-48DC-AEAF-240ED36955C0}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{EA70C47F-F11B-4DF8-9431-2305A661FD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97B54BA3-3DAF-4692-884F-2AF956E0FE38}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{56262583-E459-4094-B2D7-EE99B96DAC7A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="11520" xr2:uid="{56262583-E459-4094-B2D7-EE99B96DAC7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -205,10 +205,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,8 +544,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666A1CBD-47E1-4B28-B9C2-DA5C0ACA532D}">
   <dimension ref="A1:AP36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AL3" sqref="AL3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,9 +556,10 @@
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
     <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" customWidth="1"/>
     <col min="12" max="12" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
@@ -887,13 +890,13 @@
       </c>
     </row>
     <row r="18" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" t="s">
         <v>37</v>
       </c>
       <c r="AO18" s="1">
